--- a/reverseprimer-v3_01.xlsx
+++ b/reverseprimer-v3_01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_01" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0001-GAAGTCCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0001-GTCTACACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTACACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0002-TAGACTCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACTCAGGGTCTCGTGGGCTCGG</t>
+    <t>R0002-GATCGTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCGTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0003-ATGGACTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGACTGAAGTCTCGTGGGCTCGG</t>
+    <t>R0003-TTCCTTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTTCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0004-TGGAGACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAGACTAGGTCTCGTGGGCTCGG</t>
+    <t>R0004-ACCTCAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0005-TGACCTTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCTTCACGTCTCGTGGGCTCGG</t>
+    <t>R0005-AACATCGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATCGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0006-GAAGTCGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCGTGAGTCTCGTGGGCTCGG</t>
+    <t>R0006-AGGTCTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0007-AAGATCCACA</t>
+    <t>R0007-TCTACACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACACTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>R0008-AAGGAAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGAAGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>R0009-GCTACACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACACTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>R0010-AGCAACCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAACCTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R0011-ACTTGACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTGACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>R0012-AGCTGTTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGTTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R0013-CCACTAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCACTAGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R0014-AACAGTGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGTGACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R0015-GATCAAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCAAGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R0016-TGTGTAGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTAGCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R0017-CCTACTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACTCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R0018-GCTCTGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCTGTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R0019-AGTCGTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCGTGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R0020-GAGATGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGATGTCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R0021-AAGACGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACGTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R0022-ATCGTCAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTCAAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R0023-TGACCAAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCAAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R0024-GGTACATCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACATCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R0025-AGGTTCTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R0026-CACCTTCGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACCTTCGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R0027-ACATGACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGACCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R0028-TACCAGAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCAGAACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R0029-GCTTGTCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGTCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R0030-CTTGAAGCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGAAGCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R0031-TCCTGACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGACTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R0032-AAGATCCACA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAAGATCCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>R0008-GAAGAGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGTACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>R0009-AACACATCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACATCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>R0010-TACTCTGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCTGCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R0011-GTAGTCAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>R0012-TCACTGGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTGGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R0013-CAACACCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACACCATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R0014-GACTAGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTAGAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R0015-TAGGAAGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGAAGAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R0016-AGAACCATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACCATGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R0017-TTGGATCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGATCCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R0018-CGTACCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTACCTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R0019-ATGCATGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCATGCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R0020-CTACCTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCTCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R0021-ACTCCACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCACATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R0022-TACTACGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTACGACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R0023-ATGTCGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCGAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R0024-GCACAGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACAGTAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R0025-ACAGTCTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTCTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R0026-AACACGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACGTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R0027-ACTGAACTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAACTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R0028-GTCTTCATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTTCATGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R0029-AGGAGAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAGAGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R0030-TACAAGAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAAGAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R0031-GTCGATCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGATCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R0032-ACAACCTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACCTAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R0033-ACACGTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGTCACAGTCTCGTGGGCTCGG</t>
+    <t>R0033-TAGCTGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R0034-AACACCTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACCTTGCGTCTCGTGGGCTCGG</t>
+    <t>R0034-AAGTCCAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCCAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R0035-CAAGTGACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGACGTGTCTCGTGGGCTCGG</t>
+    <t>R0035-AGTGATCACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGATCACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R0036-CTTCAGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGTAGAGTCTCGTGGGCTCGG</t>
+    <t>R0036-CAGGATCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGATCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R0037-AACTTGCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTTGCAGAGTCTCGTGGGCTCGG</t>
+    <t>R0037-TACTGTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R0038-AGATCACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCACGTAGTCTCGTGGGCTCGG</t>
+    <t>R0038-GTGTCTCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R0039-ATCAGGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGGTACAGTCTCGTGGGCTCGG</t>
+    <t>R0039-GTGTGTTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R0040-GGACTTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGACTTCAGAGTCTCGTGGGCTCGG</t>
+    <t>R0040-CAACGACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R0041-TCTTGTTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGTTGGTGTCTCGTGGGCTCGG</t>
+    <t>R0041-TGCAGAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAGAAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R0042-TCGTACAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTACAGGTGTCTCGTGGGCTCGG</t>
+    <t>R0042-GCTCTACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCTACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R0043-GATGATGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGATGTCGGTCTCGTGGGCTCGG</t>
+    <t>R0043-ATGTCCACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCCACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R0044-TCTAGCAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGCAGATGTCTCGTGGGCTCGG</t>
+    <t>R0044-CCTGCATCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGCATCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R0045-TCTGAAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGAAGCATGTCTCGTGGGCTCGG</t>
+    <t>R0045-ACACAAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R0046-TCACGATGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACGATGATGTCTCGTGGGCTCGG</t>
+    <t>R0046-TGAAGGAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGGAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R0047-ACTAGACTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGACTGCGTCTCGTGGGCTCGG</t>
+    <t>R0047-TGTTGAGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTGAGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R0048-GTCAAGACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAAGACTAGTCTCGTGGGCTCGG</t>
+    <t>R0048-TGTGCAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGCAGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R0049-GAACGAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGAGAGAGTCTCGTGGGCTCGG</t>
+    <t>R0049-GTAGCTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R0050-GTCTCAAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTCAAGATGTCTCGTGGGCTCGG</t>
+    <t>R0050-TCATGGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGGTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R0051-TTCAGTGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGTGAGGGTCTCGTGGGCTCGG</t>
+    <t>R0051-ACCTCACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTCACTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R0052-GCAGACAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAGACAGTAGTCTCGTGGGCTCGG</t>
+    <t>R0052-GGTGTTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGTTGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R0053-TGAGTGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGAAGGGTCTCGTGGGCTCGG</t>
+    <t>R0053-GCATCTACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCTACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R0054-TCTGATCGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGATCGACGTCTCGTGGGCTCGG</t>
+    <t>R0054-TGTGAGGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGAGGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R0055-CAACACGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACACGTCAGTCTCGTGGGCTCGG</t>
+    <t>R0055-GTCGTACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGTACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0056-AACCTGGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTGGTACGTCTCGTGGGCTCGG</t>
+    <t>R0056-CAACCACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0057-TAGCTTCGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTTCGAGGTCTCGTGGGCTCGG</t>
+    <t>R0057-TGAACTCCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACTCCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0058-TTGGACAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGACAACTGTCTCGTGGGCTCGG</t>
+    <t>R0058-TCCATGCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATGCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0059-GGTCGTACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCGTACAAGTCTCGTGGGCTCGG</t>
+    <t>R0059-ATCACTTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACTTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0060-ACCATGAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCATGAGTGGTCTCGTGGGCTCGG</t>
+    <t>R0060-TCGATCCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATCCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R0061-ACGAACCAAG</t>
+    <t>R0061-AGTTGATCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGATCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R0062-CTCACTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCACTGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R0063-CGAGTGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAGTGTGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R0064-ACGAACCAAG</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATACGAACCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R0062-TAGTCTCGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTCGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R0063-TTGCACATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCACATCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R0064-CATCGTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCGTCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R0065-TAGGACTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGACTGCTGTCTCGTGGGCTCGG</t>
+    <t>R0065-TGTCTGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTGTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R0066-TTCGTGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTGTACGGTCTCGTGGGCTCGG</t>
+    <t>R0066-ACAACTAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACTAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R0067-TGACTTGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTTGTCGGTCTCGTGGGCTCGG</t>
+    <t>R0067-GTACTTGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTTGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R0068-CAAGTCAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTCAACGGTCTCGTGGGCTCGG</t>
+    <t>R0068-GAAGTGTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTGTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R0069-AAGCACTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCACTGCAGTCTCGTGGGCTCGG</t>
+    <t>R0069-AGGAACTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAACTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R0070-TAGCAGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGACCTGTCTCGTGGGCTCGG</t>
+    <t>R0070-TGACTACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACTACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R0071-AGGTTCTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCTGCAGTCTCGTGGGCTCGG</t>
+    <t>R0071-AGTTGAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R0072-TGATGTGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGTGCACGTCTCGTGGGCTCGG</t>
+    <t>R0072-GAGCTTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGCTTGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R0073-TACAAGCTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAAGCTCCGTCTCGTGGGCTCGG</t>
+    <t>R0073-GCACTGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCACTGTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R0074-TGAGCTAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTAGTCGTCTCGTGGGCTCGG</t>
+    <t>R0074-AGCTTCTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R0075-GTCTCGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTCGATGTGTCTCGTGGGCTCGG</t>
+    <t>R0075-GCATCTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCTGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R0076-ACACTAGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTAGAGCGTCTCGTGGGCTCGG</t>
+    <t>R0076-TGTTGTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTGTACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R0077-CCTTCACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCACTCAGTCTCGTGGGCTCGG</t>
+    <t>R0077-TCCTGTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R0078-CCACAGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCACAGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0078-TACAACGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAACGAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0079-CCTTCGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCGTGATGTCTCGTGGGCTCGG</t>
+    <t>R0079-TACTACCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTACCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0080-CCTACTGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACTGCTAGTCTCGTGGGCTCGG</t>
+    <t>R0080-CAACTGCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTGCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0081-CTAGTGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGTGAGAGGTCTCGTGGGCTCGG</t>
+    <t>R0081-AACTGCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGCAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0082-ACATGGTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGGTTGGGTCTCGTGGGCTCGG</t>
+    <t>R0082-CAACCTAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCTAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0083-TCATGGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGGTCAGGTCTCGTGGGCTCGG</t>
+    <t>R0083-TCGTCAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTCAGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0084-AGAACCAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACCAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0084-CTTGCACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGCACTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0085-CTCGAACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGAACGATGTCTCGTGGGCTCGG</t>
+    <t>R0085-AGTGTTCCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTTCCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0086-GGAGATGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGATGCTAGTCTCGTGGGCTCGG</t>
+    <t>R0086-AGCAACATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAACATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0087-ACGAGCTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAGCTGTTGTCTCGTGGGCTCGG</t>
+    <t>R0087-ACACAACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAACAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0088-ACTGGAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGGAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R0088-TAGCAAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0089-TACGAACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAACGAAGTCTCGTGGGCTCGG</t>
+    <t>R0089-AAGCTCCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTCCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0090-GAGCTAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGCTAGTTCGTCTCGTGGGCTCGG</t>
+    <t>R0090-GTACTAGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTAGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0091-AACAGTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGTTCCAGTCTCGTGGGCTCGG</t>
+    <t>R0091-CCTCTTGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTCTTGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0092-TAGTCGAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCGAGTGGTCTCGTGGGCTCGG</t>
+    <t>R0092-TGGAAGGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAAGGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0093-GCTTGTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGTAGCTGTCTCGTGGGCTCGG</t>
+    <t>R0093-TGAACTTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACTTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0094-GAGTTCGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCGTGTGTCTCGTGGGCTCGG</t>
+    <t>R0094-AGGACAAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGACAAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0095-CATCAGTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCAGTTGCGTCTCGTGGGCTCGG</t>
+    <t>R0095-TTCGATGCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGATGCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0096-CTAGTACTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGTACTCCGTCTCGTGGGCTCGG</t>
+    <t>R0096-ATCCTTCTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTTCTCGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
